--- a/NH3 komilis.xlsx
+++ b/NH3 komilis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hravoaha\Desktop\Thèse\composting code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7C285524-4B32-4B47-A112-8C59643DFD52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED715D-5693-491E-9EA4-547076101CEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16480" windowHeight="8150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16480" windowHeight="8150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default Dataset (16)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>t</t>
   </si>
@@ -36,11 +36,14 @@
   <si>
     <t>NNH3(%Niniti)</t>
   </si>
+  <si>
+    <t>Ncompost(kg/kgTM)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1991,16 +1994,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2324,11 +2327,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CU93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2353,6 +2356,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
@@ -2373,6 +2379,10 @@
         <f>C2/(0.008/0.6)</f>
         <v>0</v>
       </c>
+      <c r="F2">
+        <f>(0.008/0.6)-C2</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -2393,6 +2403,10 @@
         <f>C3/(0.008/0.6)</f>
         <v>5.8708791230565093E-3</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">(0.008/0.6)-C3</f>
+        <v>1.3255054945025914E-2</v>
+      </c>
       <c r="H3">
         <v>9.5052328659010201E-5</v>
       </c>
@@ -2686,8 +2700,12 @@
         <v>8.3184045620612453E-5</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="2">C4/(0.008/0.6)</f>
+        <f t="shared" ref="E4:E67" si="3">C4/(0.008/0.6)</f>
         <v>5.1378381118613566E-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1.3264828825175183E-2</v>
       </c>
       <c r="H4">
         <v>8.3184045620612453E-5</v>
@@ -2709,8 +2727,12 @@
         <v>8.597903122819074E-5</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3104695758588389E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1.3262527072321883E-2</v>
       </c>
       <c r="H5">
         <v>8.597903122819074E-5</v>
@@ -2732,8 +2754,12 @@
         <v>9.59316257659205E-5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9251886502480295E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.3254330817996695E-2</v>
       </c>
       <c r="H6">
         <v>9.59316257659205E-5</v>
@@ -2755,8 +2781,12 @@
         <v>1.1399826882339984E-4</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0410695449746943E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1.3239452406067005E-2</v>
       </c>
       <c r="H7">
         <v>1.1399826882339984E-4</v>
@@ -2778,8 +2808,12 @@
         <v>1.4868461714473115E-4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.1834616471745713E-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.3210887178037672E-2</v>
       </c>
       <c r="H8">
         <v>1.4868461714473115E-4</v>
@@ -2801,8 +2835,12 @@
         <v>2.7535441383007839E-4</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7007184383622486E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.3106570874885034E-2</v>
       </c>
       <c r="H9">
         <v>2.7535441383007839E-4</v>
@@ -2824,8 +2862,12 @@
         <v>4.5329368371006031E-4</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7997551052680189E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.2960032652630932E-2</v>
       </c>
       <c r="H10">
         <v>4.5329368371006031E-4</v>
@@ -2847,8 +2889,12 @@
         <v>6.6335357381610606E-4</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0971838382759487E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.278704215489654E-2</v>
       </c>
       <c r="H11">
         <v>6.6335357381610606E-4</v>
@@ -2870,8 +2916,12 @@
         <v>8.7770584799877884E-4</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4211243552865739E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1.2610516752628458E-2</v>
       </c>
       <c r="H12">
         <v>8.7770584799877884E-4</v>
@@ -2893,8 +2943,12 @@
         <v>1.0940941914714742E-3</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7576405943826343E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.2432314587415649E-2</v>
       </c>
       <c r="H13">
         <v>1.0940941914714742E-3</v>
@@ -2916,8 +2970,12 @@
         <v>1.4774515264461973E-3</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.1254358986382761E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.2116608546848231E-2</v>
       </c>
       <c r="H14">
         <v>1.4774515264461973E-3</v>
@@ -2939,8 +2997,12 @@
         <v>1.8560720955151213E-3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11463974707593394</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1.1804803372320882E-2</v>
       </c>
       <c r="H15">
         <v>1.8560720955151213E-3</v>
@@ -2962,8 +3024,12 @@
         <v>2.4626569506370722E-3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1521052822452309</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1.1305262903396921E-2</v>
       </c>
       <c r="H16">
         <v>2.4626569506370722E-3</v>
@@ -2985,8 +3051,12 @@
         <v>3.0617822112157301E-3</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18911007775155977</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.0811865629979205E-2</v>
       </c>
       <c r="H17">
         <v>3.0617822112157301E-3</v>
@@ -3008,8 +3078,12 @@
         <v>3.3580488841920718E-3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20740890167068673</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.0567881311057511E-2</v>
       </c>
       <c r="H18">
         <v>3.3580488841920718E-3</v>
@@ -3031,8 +3105,12 @@
         <v>3.8509286917385384E-3</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23785147801914497</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1.0161980293078068E-2</v>
       </c>
       <c r="H19">
         <v>3.8509286917385384E-3</v>
@@ -3054,8 +3132,12 @@
         <v>4.1615857364430365E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25703911901559928</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>9.9061450797920097E-3</v>
       </c>
       <c r="H20">
         <v>4.1615857364430365E-3</v>
@@ -3077,8 +3159,12 @@
         <v>4.4844895409628088E-3</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2769831775300558</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>9.6402242995992562E-3</v>
       </c>
       <c r="H21">
         <v>4.4844895409628088E-3</v>
@@ -3100,8 +3186,12 @@
         <v>4.918560052031706E-3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30379341497842888</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>9.2827544669542815E-3</v>
       </c>
       <c r="H22">
         <v>4.918560052031706E-3</v>
@@ -3123,8 +3213,12 @@
         <v>5.4325044242894355E-3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33553703797081802</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>8.859506160389094E-3</v>
       </c>
       <c r="H23">
         <v>5.4325044242894355E-3</v>
@@ -3146,8 +3240,12 @@
         <v>5.8634877117619234E-3</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3621565939617658</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>8.5045787471764566E-3</v>
       </c>
       <c r="H24">
         <v>5.8634877117619234E-3</v>
@@ -3169,8 +3267,12 @@
         <v>6.0363133254632299E-3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37283111716096412</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>8.3622517711871465E-3</v>
       </c>
       <c r="H25">
         <v>6.0363133254632299E-3</v>
@@ -3192,8 +3294,12 @@
         <v>6.2772330515271871E-3</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38771145318256151</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>8.1638472908991816E-3</v>
       </c>
       <c r="H26">
         <v>6.2772330515271871E-3</v>
@@ -3215,8 +3321,12 @@
         <v>6.5323558186086367E-3</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40346903585523924</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>7.9537461885968094E-3</v>
       </c>
       <c r="H27">
         <v>6.5323558186086367E-3</v>
@@ -3238,8 +3348,12 @@
         <v>6.8289614199858739E-3</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42178879358736271</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>7.7094827521684978E-3</v>
       </c>
       <c r="H28">
         <v>6.8289614199858739E-3</v>
@@ -3261,8 +3375,12 @@
         <v>7.1463639506209337E-3</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44139306753835172</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>7.4480924328219778E-3</v>
       </c>
       <c r="H29">
         <v>7.1463639506209337E-3</v>
@@ -3284,8 +3402,12 @@
         <v>7.2869088791520835E-3</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45007378371233447</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>7.3323495505022073E-3</v>
       </c>
       <c r="H30">
         <v>7.2869088791520835E-3</v>
@@ -3307,8 +3429,12 @@
         <v>7.4117990987514152E-3</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45778759139346964</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>7.2294987814204049E-3</v>
       </c>
       <c r="H31">
         <v>7.4117990987514152E-3</v>
@@ -3330,8 +3456,12 @@
         <v>7.5906502401716517E-3</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46883427954001367</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>7.0822096061331514E-3</v>
       </c>
       <c r="H32">
         <v>7.5906502401716517E-3</v>
@@ -3353,8 +3483,12 @@
         <v>7.7647975346054618E-3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47959043596092554</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>6.9387941871876602E-3</v>
       </c>
       <c r="H33">
         <v>7.7647975346054618E-3</v>
@@ -3376,8 +3510,12 @@
         <v>7.8716766314806154E-3</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48619179194439088</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>6.8507761074081217E-3</v>
       </c>
       <c r="H34">
         <v>7.8716766314806154E-3</v>
@@ -3399,8 +3537,12 @@
         <v>7.8719312052506919E-3</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48620751561842501</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>6.8505664584210006E-3</v>
       </c>
       <c r="H35">
         <v>7.8719312052506919E-3</v>
@@ -3422,8 +3564,12 @@
         <v>7.9454592764116507E-3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49074895530777835</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>6.7900139292296222E-3</v>
       </c>
       <c r="H36">
         <v>7.9454592764116507E-3</v>
@@ -3445,8 +3591,12 @@
         <v>8.0942748275418461E-3</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4999405040540551</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>6.6674599459459324E-3</v>
       </c>
       <c r="H37">
         <v>8.0942748275418461E-3</v>
@@ -3468,8 +3618,12 @@
         <v>8.1628655018732895E-3</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50417698688040902</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>6.6109735082612135E-3</v>
       </c>
       <c r="H38">
         <v>8.1628655018732895E-3</v>
@@ -3491,8 +3645,12 @@
         <v>8.2155853596890347E-3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50743321339255798</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>6.5675571547658945E-3</v>
       </c>
       <c r="H39">
         <v>8.2155853596890347E-3</v>
@@ -3514,8 +3672,12 @@
         <v>8.4152648152075737E-3</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51976635623340883</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>6.4031152502212153E-3</v>
       </c>
       <c r="H40">
         <v>8.4152648152075737E-3</v>
@@ -3537,8 +3699,12 @@
         <v>8.6067755409709699E-3</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53159495988350103</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>6.2454005348866531E-3</v>
       </c>
       <c r="H41">
         <v>8.6067755409709699E-3</v>
@@ -3560,8 +3726,12 @@
         <v>8.6472480287411672E-3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53409473118695439</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>6.2120702508406088E-3</v>
       </c>
       <c r="H42">
         <v>8.6472480287411672E-3</v>
@@ -3583,8 +3753,12 @@
         <v>8.756188086358644E-3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5408233818045044</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>6.1223549092732747E-3</v>
       </c>
       <c r="H43">
         <v>8.756188086358644E-3</v>
@@ -3606,8 +3780,12 @@
         <v>8.9019615419567381E-3</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54982703641497499</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>6.0023061811336677E-3</v>
       </c>
       <c r="H44">
         <v>8.9019615419567381E-3</v>
@@ -3629,8 +3807,12 @@
         <v>9.1152492744159992E-3</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56300069047863521</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>5.8266574602848648E-3</v>
       </c>
       <c r="H45">
         <v>9.1152492744159992E-3</v>
@@ -3652,8 +3834,12 @@
         <v>9.2760159113680855E-3</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57293039452567585</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>5.6942614063243231E-3</v>
       </c>
       <c r="H46">
         <v>9.2760159113680855E-3</v>
@@ -3675,8 +3861,12 @@
         <v>9.311398076041125E-3</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57511576352018701</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>5.6651231530641735E-3</v>
       </c>
       <c r="H47">
         <v>9.311398076041125E-3</v>
@@ -3698,8 +3888,12 @@
         <v>9.3759080047074606E-3</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57910020029075482</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>5.6119973294566023E-3</v>
       </c>
       <c r="H48">
         <v>9.3759080047074606E-3</v>
@@ -3721,8 +3915,12 @@
         <v>9.4287340602625964E-3</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58236298607504267</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>5.5684935189994319E-3</v>
       </c>
       <c r="H49">
         <v>9.4287340602625964E-3</v>
@@ -3744,8 +3942,12 @@
         <v>9.4949941040263098E-3</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58645551818986019</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>5.513926424135198E-3</v>
       </c>
       <c r="H50">
         <v>9.4949941040263098E-3</v>
@@ -3767,8 +3969,12 @@
         <v>9.5809574232131045E-3</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59176501731610343</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>5.4431331024519542E-3</v>
       </c>
       <c r="H51">
         <v>9.5809574232131045E-3</v>
@@ -3790,8 +3996,12 @@
         <v>9.6292115541510865E-3</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5947454195210965</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>5.4033944063853808E-3</v>
       </c>
       <c r="H52">
         <v>9.6292115541510865E-3</v>
@@ -3813,8 +4023,12 @@
         <v>9.6662731839255896E-3</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59703452018363934</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>5.3728730642181432E-3</v>
       </c>
       <c r="H53">
         <v>9.6662731839255896E-3</v>
@@ -3836,8 +4050,12 @@
         <v>9.6969488912760689E-3</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5989291962258747</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>5.3476107169883377E-3</v>
       </c>
       <c r="H54">
         <v>9.6969488912760689E-3</v>
@@ -3859,8 +4077,12 @@
         <v>9.7392097240724899E-3</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60153942413388906</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>5.3128076782148134E-3</v>
       </c>
       <c r="H55">
         <v>9.7392097240724899E-3</v>
@@ -3882,8 +4104,12 @@
         <v>9.7699892779066298E-3</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60344051422364464</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>5.2874598103514053E-3</v>
       </c>
       <c r="H56">
         <v>9.7699892779066298E-3</v>
@@ -3905,8 +4131,12 @@
         <v>9.7813032170368866E-3</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60413931634639584</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>5.2781424487147229E-3</v>
       </c>
       <c r="H57">
         <v>9.7813032170368866E-3</v>
@@ -3928,8 +4158,12 @@
         <v>9.8070821054761295E-3</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60573154180881972</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>5.2569127758824042E-3</v>
       </c>
       <c r="H58">
         <v>9.8070821054761295E-3</v>
@@ -3951,8 +4185,12 @@
         <v>9.8307987307155453E-3</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6071963921912541</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>5.2373814374499453E-3</v>
       </c>
       <c r="H59">
         <v>9.8307987307155453E-3</v>
@@ -3974,8 +4212,12 @@
         <v>9.8610785004755799E-3</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60906661326466804</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>5.2124451564710926E-3</v>
       </c>
       <c r="H60">
         <v>9.8610785004755799E-3</v>
@@ -3997,8 +4239,12 @@
         <v>9.8783897385768572E-3</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61013583679445293</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>5.1981888427406284E-3</v>
       </c>
       <c r="H61">
         <v>9.8783897385768572E-3</v>
@@ -4020,8 +4266,12 @@
         <v>9.883663016751195E-3</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61046153926992663</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>5.1938461430676448E-3</v>
       </c>
       <c r="H62">
         <v>9.883663016751195E-3</v>
@@ -4043,8 +4293,12 @@
         <v>9.8935369177502366E-3</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61107139786104392</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>5.1857146951860816E-3</v>
       </c>
       <c r="H63">
         <v>9.8935369177502366E-3</v>
@@ -4066,8 +4320,12 @@
         <v>9.8999671731868459E-3</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61146856069683442</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>5.1804191907088744E-3</v>
       </c>
       <c r="H64">
         <v>9.8999671731868459E-3</v>
@@ -4089,8 +4347,12 @@
         <v>9.9413190978415722E-3</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61402265016080293</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>5.1463646645226284E-3</v>
       </c>
       <c r="H65">
         <v>9.9413190978415722E-3</v>
@@ -4112,8 +4374,12 @@
         <v>9.9686764987267987E-3</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61571237198018447</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>5.1238350402642071E-3</v>
       </c>
       <c r="H66">
         <v>9.9686764987267987E-3</v>
@@ -4127,16 +4393,20 @@
         <v>3.9150365271656801E-2</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C93" si="3">B67*(1-0.79)</f>
+        <f t="shared" ref="C67:C93" si="4">B67*(1-0.79)</f>
         <v>8.2215767070479267E-3</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D93" si="4">C67*(0.017/0.014)</f>
+        <f t="shared" ref="D67:D93" si="5">C67*(0.017/0.014)</f>
         <v>9.9833431442724833E-3</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61661825302859441</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F93" si="6">(0.008/0.6)-C67</f>
+        <v>5.1117566262854075E-3</v>
       </c>
       <c r="H67">
         <v>9.9833431442724833E-3</v>
@@ -4150,16 +4420,20 @@
         <v>3.9240350782355597E-2</v>
       </c>
       <c r="C68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2404736642946747E-3</v>
       </c>
       <c r="D68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0006289449500678E-2</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E93" si="5">C68/(0.008/0.6)</f>
+        <f t="shared" ref="E68:E93" si="7">C68/(0.008/0.6)</f>
         <v>0.61803552482210056</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="6"/>
+        <v>5.0928596690386595E-3</v>
       </c>
       <c r="H68">
         <v>1.0006289449500678E-2</v>
@@ -4173,16 +4447,20 @@
         <v>3.9155692353429597E-2</v>
       </c>
       <c r="C69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2226953942202141E-3</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.984701550124547E-3</v>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.616702154566516</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="6"/>
+        <v>5.1106379391131201E-3</v>
       </c>
       <c r="H69">
         <v>9.984701550124547E-3</v>
@@ -4196,16 +4474,20 @@
         <v>3.9143839407071002E-2</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2202062754849082E-3</v>
       </c>
       <c r="D70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9816790488031042E-3</v>
       </c>
       <c r="E70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61651547066136803</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="6"/>
+        <v>5.113127057848426E-3</v>
       </c>
       <c r="H70">
         <v>9.9816790488031042E-3</v>
@@ -4219,16 +4501,20 @@
         <v>3.9273119777166597E-2</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2473551532049848E-3</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0014645543177483E-2</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61855163649037381</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="6"/>
+        <v>5.0859781801283494E-3</v>
       </c>
       <c r="H71">
         <v>1.0014645543177483E-2</v>
@@ -4242,16 +4528,20 @@
         <v>3.9368001672830499E-2</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2672803512944034E-3</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0038840426571776E-2</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62004602634708017</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="6"/>
+        <v>5.0660529820389308E-3</v>
       </c>
       <c r="H72">
         <v>1.0038840426571776E-2</v>
@@ -4265,16 +4555,20 @@
         <v>3.9424519765232501E-2</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2791491506988245E-3</v>
       </c>
       <c r="D73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0053252540134288E-2</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62093618630241176</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="6"/>
+        <v>5.0541841826345097E-3</v>
       </c>
       <c r="H73">
         <v>1.0053252540134288E-2</v>
@@ -4288,16 +4582,20 @@
         <v>3.9421407008154601E-2</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2784954717124645E-3</v>
       </c>
       <c r="D74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0052458787079423E-2</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62088716037843483</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="6"/>
+        <v>5.0548378616208697E-3</v>
       </c>
       <c r="H74">
         <v>1.0052458787079423E-2</v>
@@ -4311,16 +4609,20 @@
         <v>3.9481365142602101E-2</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.291086679946439E-3</v>
       </c>
       <c r="D75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0067748111363534E-2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62183150099598283</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="6"/>
+        <v>5.0422466533868952E-3</v>
       </c>
       <c r="H75">
         <v>1.0067748111363534E-2</v>
@@ -4334,16 +4636,20 @@
         <v>3.9577235748138803E-2</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.311219507109148E-3</v>
       </c>
       <c r="D76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0092195115775394E-2</v>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62334146303318605</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="6"/>
+        <v>5.0221138262241862E-3</v>
       </c>
       <c r="H76">
         <v>1.0092195115775394E-2</v>
@@ -4357,16 +4663,20 @@
         <v>3.9621809986173699E-2</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.320580097096476E-3</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0103561546474293E-2</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62404350728223568</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="6"/>
+        <v>5.0127532362368582E-3</v>
       </c>
       <c r="H77">
         <v>1.0103561546474293E-2</v>
@@ -4380,16 +4690,20 @@
         <v>3.9640063982256897E-2</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3244134362739468E-3</v>
       </c>
       <c r="D78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0108216315475508E-2</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62433100772054595</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="6"/>
+        <v>5.0089198970593874E-3</v>
       </c>
       <c r="H78">
         <v>1.0108216315475508E-2</v>
@@ -4403,16 +4717,20 @@
         <v>3.9715667639131598E-2</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3402902042176343E-3</v>
       </c>
       <c r="D79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0127495247978556E-2</v>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62552176531632253</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="6"/>
+        <v>4.9930431291156999E-3</v>
       </c>
       <c r="H79">
         <v>1.0127495247978556E-2</v>
@@ -4426,16 +4744,20 @@
         <v>3.9806741992217801E-2</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3594158183657365E-3</v>
       </c>
       <c r="D80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0150719208015538E-2</v>
       </c>
       <c r="E80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62695618637743022</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="6"/>
+        <v>4.9739175149675977E-3</v>
       </c>
       <c r="H80">
         <v>1.0150719208015538E-2</v>
@@ -4449,16 +4771,20 @@
         <v>3.9819499694682202E-2</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3620949358832602E-3</v>
       </c>
       <c r="D81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0153972422143959E-2</v>
       </c>
       <c r="E81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62715712019124448</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="6"/>
+        <v>4.9712383974500739E-3</v>
       </c>
       <c r="H81">
         <v>1.0153972422143959E-2</v>
@@ -4476,16 +4802,20 @@
         <v>3.9846683448030898E-2</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3678035240864878E-3</v>
       </c>
       <c r="D82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0160904279247878E-2</v>
       </c>
       <c r="E82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62758526430648653</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="6"/>
+        <v>4.9655298092468464E-3</v>
       </c>
       <c r="H82">
         <v>1.0160904279247878E-2</v>
@@ -4499,16 +4829,20 @@
         <v>3.9908381133088103E-2</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3807600379484995E-3</v>
       </c>
       <c r="D83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0176637188937465E-2</v>
       </c>
       <c r="E83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62855700284613747</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="6"/>
+        <v>4.9525732953848347E-3</v>
       </c>
       <c r="H83">
         <v>1.0176637188937465E-2</v>
@@ -4522,16 +4856,20 @@
         <v>3.9972520585368099E-2</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3942293229272991E-3</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0192992749268864E-2</v>
       </c>
       <c r="E84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6295671992195474</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="6"/>
+        <v>4.9391040104060351E-3</v>
       </c>
       <c r="H84">
         <v>1.0192992749268864E-2</v>
@@ -4549,16 +4887,20 @@
         <v>4.0018029594740601E-2</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4037862148955249E-3</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0204597546658853E-2</v>
       </c>
       <c r="E85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63028396611716431</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="6"/>
+        <v>4.9295471184378093E-3</v>
       </c>
       <c r="H85">
         <v>1.0204597546658853E-2</v>
@@ -4576,16 +4918,20 @@
         <v>4.0045918210766598E-2</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4096428242609843E-3</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0211709143745482E-2</v>
       </c>
       <c r="E86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6307232118195738</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="6"/>
+        <v>4.9236905090723499E-3</v>
       </c>
       <c r="H86">
         <v>1.0211709143745482E-2</v>
@@ -4599,16 +4945,20 @@
         <v>4.0068140424205603E-2</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.414309489083175E-3</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0217375808172427E-2</v>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63107321168123809</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="6"/>
+        <v>4.9190238442501592E-3</v>
       </c>
       <c r="H87">
         <v>1.0217375808172427E-2</v>
@@ -4622,16 +4972,20 @@
         <v>4.0129896725758597E-2</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4272783124093031E-3</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.023312366506844E-2</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63204587343069774</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="6"/>
+        <v>4.906055020924031E-3</v>
       </c>
       <c r="H88">
         <v>1.023312366506844E-2</v>
@@ -4645,16 +4999,20 @@
         <v>4.0183842690575199E-2</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4386069650207902E-3</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0246879886096676E-2</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63289552237655922</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="6"/>
+        <v>4.8947263683125439E-3</v>
       </c>
       <c r="H89">
         <v>1.0246879886096676E-2</v>
@@ -4668,16 +5026,20 @@
         <v>4.0197282581793302E-2</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4414293421765912E-3</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.025030705835729E-2</v>
       </c>
       <c r="E90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63310720066324433</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="6"/>
+        <v>4.891903991156743E-3</v>
       </c>
       <c r="H90">
         <v>1.025030705835729E-2</v>
@@ -4691,16 +5053,20 @@
         <v>4.0207224159171301E-2</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4435170734259712E-3</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0252842160588681E-2</v>
       </c>
       <c r="E91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63326378050694776</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="6"/>
+        <v>4.8898162599073629E-3</v>
       </c>
       <c r="H91">
         <v>1.0252842160588681E-2</v>
@@ -4714,16 +5080,20 @@
         <v>4.0282823516381398E-2</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4593929384400926E-3</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0272119996677256E-2</v>
       </c>
       <c r="E92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63445447038300695</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="6"/>
+        <v>4.8739403948932416E-3</v>
       </c>
       <c r="H92">
         <v>1.0272119996677256E-2</v>
@@ -4737,16 +5107,20 @@
         <v>4.0384832897732197E-2</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4808149085237594E-3</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0298132388921709E-2</v>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6360611181392819</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="6"/>
+        <v>4.8525184248095748E-3</v>
       </c>
       <c r="H93">
         <v>1.0298132388921709E-2</v>
